--- a/广丰周数据汇总/GFcollectData.xlsx
+++ b/广丰周数据汇总/GFcollectData.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lixingongsi/Desktop/广丰周数据汇总/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="460" windowWidth="22820" windowHeight="13120"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
-  </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>城市</t>
   </si>
@@ -74,31 +61,34 @@
     <t>月天数</t>
   </si>
   <si>
+    <t>温州</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
     <t>郑州</t>
   </si>
   <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>青岛</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
     <t>广州</t>
-  </si>
-  <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>佛山</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>成都</t>
   </si>
   <si>
     <t>-</t>
@@ -107,15 +97,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,13 +113,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,23 +158,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -232,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,16 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -539,25 +514,25 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="G2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="H2">
-        <v>7400</v>
+        <v>150</v>
       </c>
       <c r="I2">
-        <v>0.13571428571428601</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -566,22 +541,22 @@
         <v>7</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2">
-        <v>43647</v>
+        <v>43658</v>
       </c>
       <c r="N2" s="2">
-        <v>43650</v>
+        <v>43664</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -589,25 +564,25 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>490</v>
+        <v>161</v>
       </c>
       <c r="G3">
-        <v>3489</v>
+        <v>2324</v>
       </c>
       <c r="H3">
-        <v>15450</v>
+        <v>800</v>
       </c>
       <c r="I3">
-        <v>0.16326530612244899</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -616,13 +591,13 @@
         <v>7</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" s="2">
-        <v>43651</v>
+        <v>43665</v>
       </c>
       <c r="N3" s="2">
-        <v>43657</v>
+        <v>43671</v>
       </c>
       <c r="O3">
         <v>7</v>
@@ -631,33 +606,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>490</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>3229</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6850</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.11224489795918401</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -666,22 +641,22 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>43658</v>
+        <v>43647</v>
       </c>
       <c r="N4" s="2">
-        <v>43664</v>
+        <v>43650</v>
       </c>
       <c r="O4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -689,25 +664,25 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>9577</v>
+        <v>398</v>
       </c>
       <c r="H5">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.33333333333333298</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -716,22 +691,22 @@
         <v>7</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="2">
-        <v>43647</v>
+        <v>43651</v>
       </c>
       <c r="N5" s="2">
-        <v>43650</v>
+        <v>43657</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P5">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -739,25 +714,25 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="G6">
-        <v>13343</v>
+        <v>1838</v>
       </c>
       <c r="H6">
-        <v>6450</v>
+        <v>700</v>
       </c>
       <c r="I6">
-        <v>0.40317460317460302</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -766,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="2">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="N6" s="2">
-        <v>43657</v>
+        <v>43664</v>
       </c>
       <c r="O6">
         <v>7</v>
@@ -781,7 +756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -789,25 +764,25 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>19908</v>
+        <v>613</v>
       </c>
       <c r="H7">
-        <v>9400</v>
+        <v>700</v>
       </c>
       <c r="I7">
-        <v>0.40634920634920602</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -816,13 +791,13 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="N7" s="2">
-        <v>43664</v>
+        <v>43671</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -831,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -839,125 +814,125 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>280</v>
+      </c>
+      <c r="G8">
+        <v>375</v>
+      </c>
+      <c r="H8">
+        <v>7400</v>
+      </c>
+      <c r="I8">
+        <v>0.135714285714286</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N8" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>490</v>
+      </c>
+      <c r="G9">
+        <v>3489</v>
+      </c>
+      <c r="H9">
+        <v>15450</v>
+      </c>
+      <c r="I9">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>84</v>
-      </c>
-      <c r="G8">
-        <v>360</v>
-      </c>
-      <c r="H8">
-        <v>150</v>
-      </c>
-      <c r="I8">
-        <v>2.3809523809523812E-2</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>43658</v>
-      </c>
-      <c r="N8" s="2">
-        <v>43664</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>1574</v>
-      </c>
-      <c r="H9">
-        <v>4000</v>
-      </c>
-      <c r="I9">
-        <v>0.5178571428571429</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9" s="2">
-        <v>43647</v>
+        <v>43651</v>
       </c>
       <c r="N9" s="2">
-        <v>43650</v>
+        <v>43657</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F10">
-        <v>175</v>
+        <v>490</v>
       </c>
       <c r="G10">
-        <v>2535</v>
+        <v>3229</v>
       </c>
       <c r="H10">
-        <v>8450</v>
+        <v>6850</v>
       </c>
       <c r="I10">
-        <v>0.20571428571428571</v>
+        <v>0.112244897959184</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -966,13 +941,13 @@
         <v>7</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="2">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="N10" s="2">
-        <v>43657</v>
+        <v>43664</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -981,33 +956,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>175</v>
+        <v>490</v>
       </c>
       <c r="G11">
-        <v>3536</v>
+        <v>4594</v>
       </c>
       <c r="H11">
-        <v>13900</v>
+        <v>12650</v>
       </c>
       <c r="I11">
-        <v>0.34285714285714292</v>
+        <v>0.108163265306122</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1016,13 +991,13 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="N11" s="2">
-        <v>43664</v>
+        <v>43671</v>
       </c>
       <c r="O11">
         <v>7</v>
@@ -1031,12 +1006,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1057,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1081,12 +1056,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1131,12 +1106,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1157,7 +1132,7 @@
         <v>650</v>
       </c>
       <c r="I14">
-        <v>5.7142857142857141E-2</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1181,33 +1156,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1216,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="N15" s="2">
-        <v>43664</v>
+        <v>43671</v>
       </c>
       <c r="O15">
         <v>7</v>
@@ -1231,33 +1206,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G16">
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1266,63 +1241,63 @@
         <v>7</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>43651</v>
+        <v>43647</v>
       </c>
       <c r="N16" s="2">
-        <v>43657</v>
+        <v>43650</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>161</v>
+      </c>
+      <c r="G17">
+        <v>613</v>
+      </c>
+      <c r="H17">
+        <v>3459</v>
+      </c>
+      <c r="I17">
+        <v>0.0869565217391304</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>119</v>
-      </c>
-      <c r="G17">
-        <v>249</v>
-      </c>
-      <c r="H17">
-        <v>50</v>
-      </c>
-      <c r="I17">
-        <v>1.6806722689075598E-2</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
       <c r="M17" s="2">
-        <v>43658</v>
+        <v>43651</v>
       </c>
       <c r="N17" s="2">
-        <v>43664</v>
+        <v>43657</v>
       </c>
       <c r="O17">
         <v>7</v>
@@ -1331,33 +1306,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1366,48 +1341,48 @@
         <v>7</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" s="2">
-        <v>43647</v>
+        <v>43658</v>
       </c>
       <c r="N18" s="2">
-        <v>43650</v>
+        <v>43664</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P18">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="G19">
-        <v>398</v>
+        <v>3788</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I19">
-        <v>5.7142857142857099E-2</v>
+        <v>0.09937888198757761</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1416,13 +1391,13 @@
         <v>7</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" s="2">
-        <v>43651</v>
+        <v>43665</v>
       </c>
       <c r="N19" s="2">
-        <v>43657</v>
+        <v>43671</v>
       </c>
       <c r="O19">
         <v>7</v>
@@ -1431,33 +1406,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G20">
-        <v>1838</v>
+        <v>1574</v>
       </c>
       <c r="H20">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="I20">
-        <v>0.2</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1466,48 +1441,48 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>43658</v>
+        <v>43647</v>
       </c>
       <c r="N20" s="2">
-        <v>43664</v>
+        <v>43650</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P20">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
         <v>23</v>
       </c>
-      <c r="C21">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2535</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1516,48 +1491,48 @@
         <v>7</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2">
-        <v>43647</v>
+        <v>43651</v>
       </c>
       <c r="N21" s="2">
-        <v>43650</v>
+        <v>43657</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P21">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G22">
-        <v>613</v>
+        <v>3536</v>
       </c>
       <c r="H22">
-        <v>3459</v>
+        <v>13900</v>
       </c>
       <c r="I22">
-        <v>8.6956521739130405E-2</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1566,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="2">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="N22" s="2">
-        <v>43657</v>
+        <v>43664</v>
       </c>
       <c r="O22">
         <v>7</v>
@@ -1581,59 +1556,707 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>175</v>
+      </c>
+      <c r="G23">
+        <v>3199</v>
+      </c>
+      <c r="H23">
+        <v>4750</v>
+      </c>
+      <c r="I23">
+        <v>0.2171428571428571</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N23" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>84</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N24" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>119</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N25" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N26" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N27" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N28" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>49</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N29" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <v>1570</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="M30" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N30" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>161</v>
-      </c>
-      <c r="G23">
-        <v>178</v>
-      </c>
-      <c r="H23">
-        <v>500</v>
-      </c>
-      <c r="I23">
-        <v>1.2422360248447201E-2</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-      <c r="L23">
+      <c r="F31">
+        <v>119</v>
+      </c>
+      <c r="G31">
+        <v>249</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>0.0168067226890756</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
         <v>3</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M31" s="2">
         <v>43658</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N31" s="2">
         <v>43664</v>
       </c>
-      <c r="O23">
-        <v>7</v>
-      </c>
-      <c r="P23">
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>119</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N32" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="F33">
+        <v>180</v>
+      </c>
+      <c r="G33">
+        <v>9577</v>
+      </c>
+      <c r="H33">
+        <v>3900</v>
+      </c>
+      <c r="I33">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N33" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>127</v>
+      </c>
+      <c r="F34">
+        <v>315</v>
+      </c>
+      <c r="G34">
+        <v>13343</v>
+      </c>
+      <c r="H34">
+        <v>6450</v>
+      </c>
+      <c r="I34">
+        <v>0.403174603174603</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N34" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>39</v>
+      </c>
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <v>315</v>
+      </c>
+      <c r="G35">
+        <v>19908</v>
+      </c>
+      <c r="H35">
+        <v>9400</v>
+      </c>
+      <c r="I35">
+        <v>0.406349206349206</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N35" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>169</v>
+      </c>
+      <c r="F36">
+        <v>315</v>
+      </c>
+      <c r="G36">
+        <v>9355</v>
+      </c>
+      <c r="H36">
+        <v>12400</v>
+      </c>
+      <c r="I36">
+        <v>0.536507936507936</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N36" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/广丰周数据汇总/GFcollectData.xlsx
+++ b/广丰周数据汇总/GFcollectData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>城市</t>
   </si>
@@ -61,10 +61,7 @@
     <t>月天数</t>
   </si>
   <si>
-    <t>温州</t>
-  </si>
-  <si>
-    <t>苏州</t>
+    <t>长沙</t>
   </si>
   <si>
     <t>郑州</t>
@@ -73,22 +70,28 @@
     <t>南京</t>
   </si>
   <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>深圳</t>
-  </si>
-  <si>
     <t>佛山</t>
   </si>
   <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
     <t>青岛</t>
+  </si>
+  <si>
+    <t>温州</t>
   </si>
   <si>
     <t>杭州</t>
   </si>
   <si>
     <t>广州</t>
+  </si>
+  <si>
+    <t>成都</t>
   </si>
   <si>
     <t>-</t>
@@ -453,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,25 +517,25 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="G2">
-        <v>386</v>
+        <v>208</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02380952380952381</v>
+        <v>0.00617283950617284</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -541,16 +544,16 @@
         <v>7</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2">
-        <v>43658</v>
+        <v>43672</v>
       </c>
       <c r="N2" s="2">
-        <v>43664</v>
+        <v>43677</v>
       </c>
       <c r="O2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2">
         <v>31</v>
@@ -564,43 +567,43 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>2324</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I3">
-        <v>0.03105590062111801</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>43665</v>
+        <v>43678</v>
       </c>
       <c r="N3" s="2">
-        <v>43671</v>
+        <v>43678</v>
       </c>
       <c r="O3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>31</v>
@@ -611,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -623,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -638,19 +641,19 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="2">
-        <v>43647</v>
+        <v>43679</v>
       </c>
       <c r="N4" s="2">
-        <v>43650</v>
+        <v>43685</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P4">
         <v>31</v>
@@ -661,43 +664,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="G5">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I5">
-        <v>0.0571428571428571</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>43651</v>
+        <v>43686</v>
       </c>
       <c r="N5" s="2">
-        <v>43657</v>
+        <v>43692</v>
       </c>
       <c r="O5">
         <v>7</v>
@@ -711,43 +714,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="G6">
-        <v>1838</v>
+        <v>98</v>
       </c>
       <c r="H6">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.0105820105820106</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>43658</v>
+        <v>43693</v>
       </c>
       <c r="N6" s="2">
-        <v>43664</v>
+        <v>43699</v>
       </c>
       <c r="O6">
         <v>7</v>
@@ -764,43 +767,43 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>280</v>
+      </c>
+      <c r="G7">
+        <v>375</v>
+      </c>
+      <c r="H7">
+        <v>7400</v>
+      </c>
+      <c r="I7">
+        <v>0.135714285714286</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N7" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O7">
         <v>4</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>70</v>
-      </c>
-      <c r="G7">
-        <v>613</v>
-      </c>
-      <c r="H7">
-        <v>700</v>
-      </c>
-      <c r="I7">
-        <v>0.114285714285714</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>43665</v>
-      </c>
-      <c r="N7" s="2">
-        <v>43671</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
       </c>
       <c r="P7">
         <v>31</v>
@@ -811,28 +814,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>70</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>280</v>
+        <v>490</v>
       </c>
       <c r="G8">
-        <v>375</v>
+        <v>3489</v>
       </c>
       <c r="H8">
-        <v>7400</v>
+        <v>15450</v>
       </c>
       <c r="I8">
-        <v>0.135714285714286</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -841,16 +844,16 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="2">
-        <v>43647</v>
+        <v>43651</v>
       </c>
       <c r="N8" s="2">
-        <v>43650</v>
+        <v>43657</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>31</v>
@@ -861,28 +864,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>70</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>490</v>
       </c>
       <c r="G9">
-        <v>3489</v>
+        <v>3229</v>
       </c>
       <c r="H9">
-        <v>15450</v>
+        <v>6850</v>
       </c>
       <c r="I9">
-        <v>0.163265306122449</v>
+        <v>0.112244897959184</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -891,13 +894,13 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="2">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="N9" s="2">
-        <v>43657</v>
+        <v>43664</v>
       </c>
       <c r="O9">
         <v>7</v>
@@ -911,28 +914,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>70</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>490</v>
       </c>
       <c r="G10">
-        <v>3229</v>
+        <v>4594</v>
       </c>
       <c r="H10">
-        <v>6850</v>
+        <v>12650</v>
       </c>
       <c r="I10">
-        <v>0.112244897959184</v>
+        <v>0.108163265306122</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -941,13 +944,13 @@
         <v>7</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="2">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="N10" s="2">
-        <v>43664</v>
+        <v>43671</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -961,28 +964,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>70</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="G11">
-        <v>4594</v>
+        <v>1014</v>
       </c>
       <c r="H11">
-        <v>12650</v>
+        <v>16950</v>
       </c>
       <c r="I11">
-        <v>0.108163265306122</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -991,16 +994,16 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2">
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="N11" s="2">
-        <v>43671</v>
+        <v>43677</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P11">
         <v>31</v>
@@ -1011,46 +1014,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
+        <v>1350</v>
+      </c>
+      <c r="I12">
+        <v>0.142857142857143</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="N12" s="2">
-        <v>43650</v>
+        <v>43678</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>31</v>
@@ -1061,43 +1064,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F13">
-        <v>77</v>
+        <v>490</v>
       </c>
       <c r="G13">
-        <v>276</v>
+        <v>1974</v>
       </c>
       <c r="H13">
-        <v>1600</v>
+        <v>9199</v>
       </c>
       <c r="I13">
-        <v>0.1038961038961039</v>
+        <v>0.120408163265306</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13" s="2">
-        <v>43651</v>
+        <v>43679</v>
       </c>
       <c r="N13" s="2">
-        <v>43657</v>
+        <v>43685</v>
       </c>
       <c r="O13">
         <v>7</v>
@@ -1111,43 +1114,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>490</v>
       </c>
       <c r="G14">
-        <v>147</v>
+        <v>2216</v>
       </c>
       <c r="H14">
-        <v>650</v>
+        <v>9850</v>
       </c>
       <c r="I14">
-        <v>0.05714285714285714</v>
+        <v>0.122448979591837</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14" s="2">
-        <v>43658</v>
+        <v>43686</v>
       </c>
       <c r="N14" s="2">
-        <v>43664</v>
+        <v>43692</v>
       </c>
       <c r="O14">
         <v>7</v>
@@ -1161,43 +1164,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F15">
-        <v>112</v>
+        <v>490</v>
       </c>
       <c r="G15">
-        <v>797</v>
+        <v>2553.6</v>
       </c>
       <c r="H15">
-        <v>400</v>
+        <v>11400</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.155102040816327</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>43665</v>
+        <v>43693</v>
       </c>
       <c r="N15" s="2">
-        <v>43671</v>
+        <v>43699</v>
       </c>
       <c r="O15">
         <v>7</v>
@@ -1211,10 +1214,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1231,8 +1234,8 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>26</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1261,28 +1264,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="G17">
-        <v>613</v>
+        <v>276</v>
       </c>
       <c r="H17">
-        <v>3459</v>
+        <v>1600</v>
       </c>
       <c r="I17">
-        <v>0.0869565217391304</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1311,28 +1314,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G18">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="H18">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="I18">
-        <v>0.0124223602484472</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1361,28 +1364,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="G19">
-        <v>3788</v>
+        <v>797</v>
       </c>
       <c r="H19">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I19">
-        <v>0.09937888198757761</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1411,28 +1414,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>1574</v>
+        <v>544</v>
       </c>
       <c r="H20">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="I20">
-        <v>0.5178571428571429</v>
+        <v>0.125</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1441,16 +1444,16 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2">
-        <v>43647</v>
+        <v>43672</v>
       </c>
       <c r="N20" s="2">
-        <v>43650</v>
+        <v>43677</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>31</v>
@@ -1461,46 +1464,46 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>2535</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2057142857142857</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>43651</v>
+        <v>43678</v>
       </c>
       <c r="N21" s="2">
-        <v>43657</v>
+        <v>43678</v>
       </c>
       <c r="O21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>31</v>
@@ -1511,43 +1514,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F22">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="G22">
-        <v>3536</v>
+        <v>1240</v>
       </c>
       <c r="H22">
-        <v>13900</v>
+        <v>3050</v>
       </c>
       <c r="I22">
-        <v>0.3428571428571429</v>
+        <v>0.2767857142857143</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" s="2">
-        <v>43658</v>
+        <v>43679</v>
       </c>
       <c r="N22" s="2">
-        <v>43664</v>
+        <v>43685</v>
       </c>
       <c r="O22">
         <v>7</v>
@@ -1561,43 +1564,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F23">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="G23">
-        <v>3199</v>
+        <v>1044</v>
       </c>
       <c r="H23">
-        <v>4750</v>
+        <v>5900</v>
       </c>
       <c r="I23">
-        <v>0.2171428571428571</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="2">
-        <v>43665</v>
+        <v>43686</v>
       </c>
       <c r="N23" s="2">
-        <v>43671</v>
+        <v>43692</v>
       </c>
       <c r="O23">
         <v>7</v>
@@ -1611,43 +1614,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F24">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11869</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="2">
-        <v>43658</v>
+        <v>43693</v>
       </c>
       <c r="N24" s="2">
-        <v>43664</v>
+        <v>43699</v>
       </c>
       <c r="O24">
         <v>7</v>
@@ -1661,10 +1664,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1673,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1691,13 +1694,13 @@
         <v>7</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" s="2">
-        <v>43665</v>
+        <v>43658</v>
       </c>
       <c r="N25" s="2">
-        <v>43671</v>
+        <v>43664</v>
       </c>
       <c r="O25">
         <v>7</v>
@@ -1711,10 +1714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1731,8 +1734,8 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>25</v>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1741,16 +1744,16 @@
         <v>7</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" s="2">
-        <v>43647</v>
+        <v>43665</v>
       </c>
       <c r="N26" s="2">
-        <v>43650</v>
+        <v>43671</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P26">
         <v>31</v>
@@ -1761,10 +1764,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1781,8 +1784,8 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>25</v>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1791,16 +1794,16 @@
         <v>7</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M27" s="2">
-        <v>43651</v>
+        <v>43672</v>
       </c>
       <c r="N27" s="2">
-        <v>43657</v>
+        <v>43677</v>
       </c>
       <c r="O27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P27">
         <v>31</v>
@@ -1811,46 +1814,46 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>25</v>
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>0.0416666666666667</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>43658</v>
+        <v>43678</v>
       </c>
       <c r="N28" s="2">
-        <v>43664</v>
+        <v>43678</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>31</v>
@@ -1861,43 +1864,43 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.101190476190476</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" s="2">
-        <v>43665</v>
+        <v>43679</v>
       </c>
       <c r="N29" s="2">
-        <v>43671</v>
+        <v>43685</v>
       </c>
       <c r="O29">
         <v>7</v>
@@ -1911,43 +1914,43 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F30">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="G30">
-        <v>1570</v>
+        <v>2772</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4283</v>
       </c>
       <c r="I30">
-        <v>0.111111111111111</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="2">
-        <v>43651</v>
+        <v>43686</v>
       </c>
       <c r="N30" s="2">
-        <v>43657</v>
+        <v>43692</v>
       </c>
       <c r="O30">
         <v>7</v>
@@ -1961,43 +1964,43 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="G31">
-        <v>249</v>
+        <v>1743</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>8500</v>
       </c>
       <c r="I31">
-        <v>0.0168067226890756</v>
+        <v>0.195238095238095</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" s="2">
-        <v>43658</v>
+        <v>43693</v>
       </c>
       <c r="N31" s="2">
-        <v>43664</v>
+        <v>43699</v>
       </c>
       <c r="O31">
         <v>7</v>
@@ -2011,43 +2014,43 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2516</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" s="2">
-        <v>43665</v>
+        <v>43686</v>
       </c>
       <c r="N32" s="2">
-        <v>43671</v>
+        <v>43692</v>
       </c>
       <c r="O32">
         <v>7</v>
@@ -2061,46 +2064,46 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F33">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="G33">
-        <v>9577</v>
+        <v>15796</v>
       </c>
       <c r="H33">
-        <v>3900</v>
+        <v>9200</v>
       </c>
       <c r="I33">
-        <v>0.333333333333333</v>
+        <v>0.2662337662337662</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33" s="2">
-        <v>43647</v>
+        <v>43693</v>
       </c>
       <c r="N33" s="2">
-        <v>43650</v>
+        <v>43699</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P33">
         <v>31</v>
@@ -2111,28 +2114,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>13343</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>6450</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.403174603174603</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2141,16 +2144,16 @@
         <v>7</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>43651</v>
+        <v>43647</v>
       </c>
       <c r="N34" s="2">
-        <v>43657</v>
+        <v>43650</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P34">
         <v>31</v>
@@ -2161,28 +2164,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>315</v>
+        <v>70</v>
       </c>
       <c r="G35">
-        <v>19908</v>
+        <v>398</v>
       </c>
       <c r="H35">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0.406349206349206</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2191,13 +2194,13 @@
         <v>7</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" s="2">
-        <v>43658</v>
+        <v>43651</v>
       </c>
       <c r="N35" s="2">
-        <v>43664</v>
+        <v>43657</v>
       </c>
       <c r="O35">
         <v>7</v>
@@ -2211,48 +2214,2448 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>1838</v>
+      </c>
+      <c r="H36">
+        <v>700</v>
+      </c>
+      <c r="I36">
+        <v>0.2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N36" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>613</v>
+      </c>
+      <c r="H37">
+        <v>700</v>
+      </c>
+      <c r="I37">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N37" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>3105</v>
+      </c>
+      <c r="H38">
+        <v>400</v>
+      </c>
+      <c r="I38">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38" s="2">
+        <v>43672</v>
+      </c>
+      <c r="N38" s="2">
+        <v>43677</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>498</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>43678</v>
+      </c>
+      <c r="N39" s="2">
+        <v>43678</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <v>2177</v>
+      </c>
+      <c r="H40">
+        <v>400</v>
+      </c>
+      <c r="I40">
+        <v>0.414285714285714</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2">
+        <v>43679</v>
+      </c>
+      <c r="N40" s="2">
+        <v>43685</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>1397</v>
+      </c>
+      <c r="H41">
+        <v>550</v>
+      </c>
+      <c r="I41">
+        <v>0.185714285714286</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2">
+        <v>43686</v>
+      </c>
+      <c r="N41" s="2">
+        <v>43692</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>1393</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2">
+        <v>43693</v>
+      </c>
+      <c r="N42" s="2">
+        <v>43699</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N43" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N44" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N45" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>49</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N46" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>42</v>
+      </c>
+      <c r="G47">
+        <v>79</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47" s="2">
+        <v>43672</v>
+      </c>
+      <c r="N47" s="2">
+        <v>43677</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="P47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>8</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>43678</v>
+      </c>
+      <c r="N48" s="2">
+        <v>43678</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>56</v>
+      </c>
+      <c r="G49">
+        <v>268</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49" s="2">
+        <v>43679</v>
+      </c>
+      <c r="N49" s="2">
+        <v>43685</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>2702</v>
+      </c>
+      <c r="H50">
+        <v>750</v>
+      </c>
+      <c r="I50">
+        <v>0.158730158730159</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50" s="2">
+        <v>43686</v>
+      </c>
+      <c r="N50" s="2">
+        <v>43692</v>
+      </c>
+      <c r="O50">
+        <v>7</v>
+      </c>
+      <c r="P50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>98</v>
+      </c>
+      <c r="G51">
+        <v>1058</v>
+      </c>
+      <c r="H51">
+        <v>1650</v>
+      </c>
+      <c r="I51">
+        <v>0.13265306122449</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51" s="2">
+        <v>43693</v>
+      </c>
+      <c r="N51" s="2">
+        <v>43699</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="P51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>84</v>
+      </c>
+      <c r="G52">
+        <v>536</v>
+      </c>
+      <c r="H52">
+        <v>150</v>
+      </c>
+      <c r="I52">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N52" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="P52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>161</v>
+      </c>
+      <c r="G53">
+        <v>3124</v>
+      </c>
+      <c r="H53">
+        <v>800</v>
+      </c>
+      <c r="I53">
+        <v>0.03105590062111801</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N53" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>138</v>
+      </c>
+      <c r="G54">
+        <v>1361</v>
+      </c>
+      <c r="H54">
+        <v>1050</v>
+      </c>
+      <c r="I54">
+        <v>0.02173913043478261</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54" s="2">
+        <v>43672</v>
+      </c>
+      <c r="N54" s="2">
+        <v>43677</v>
+      </c>
+      <c r="O54">
+        <v>6</v>
+      </c>
+      <c r="P54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
         <v>24</v>
       </c>
-      <c r="C36">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>24</v>
+      </c>
+      <c r="G55">
+        <v>856</v>
+      </c>
+      <c r="H55">
+        <v>550</v>
+      </c>
+      <c r="I55">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>8</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>43678</v>
+      </c>
+      <c r="N55" s="2">
+        <v>43678</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>168</v>
+      </c>
+      <c r="G56">
+        <v>3993</v>
+      </c>
+      <c r="H56">
+        <v>3750</v>
+      </c>
+      <c r="I56">
+        <v>0.08928571428571429</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56" s="2">
+        <v>43679</v>
+      </c>
+      <c r="N56" s="2">
+        <v>43685</v>
+      </c>
+      <c r="O56">
+        <v>7</v>
+      </c>
+      <c r="P56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57">
+        <v>87</v>
+      </c>
+      <c r="F57">
+        <v>168</v>
+      </c>
+      <c r="G57">
+        <v>23913</v>
+      </c>
+      <c r="H57">
+        <v>22050</v>
+      </c>
+      <c r="I57">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57" s="2">
+        <v>43686</v>
+      </c>
+      <c r="N57" s="2">
+        <v>43692</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>53</v>
+      </c>
+      <c r="E58">
+        <v>135</v>
+      </c>
+      <c r="F58">
+        <v>343</v>
+      </c>
+      <c r="G58">
+        <v>32769</v>
+      </c>
+      <c r="H58">
+        <v>30290</v>
+      </c>
+      <c r="I58">
+        <v>0.3935860058309038</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58" s="2">
+        <v>43693</v>
+      </c>
+      <c r="N58" s="2">
+        <v>43699</v>
+      </c>
+      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>63</v>
+      </c>
+      <c r="G59">
+        <v>1570</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N59" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O59">
+        <v>7</v>
+      </c>
+      <c r="P59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>119</v>
+      </c>
+      <c r="G60">
+        <v>249</v>
+      </c>
+      <c r="H60">
+        <v>50</v>
+      </c>
+      <c r="I60">
+        <v>0.0168067226890756</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N60" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>119</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>7</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N61" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O61">
+        <v>7</v>
+      </c>
+      <c r="P61">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>102</v>
+      </c>
+      <c r="G62">
+        <v>2323</v>
+      </c>
+      <c r="H62">
+        <v>2050</v>
+      </c>
+      <c r="I62">
+        <v>0.215686274509804</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62" s="2">
+        <v>43672</v>
+      </c>
+      <c r="N62" s="2">
+        <v>43677</v>
+      </c>
+      <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0.0588235294117647</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>8</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>43678</v>
+      </c>
+      <c r="N63" s="2">
+        <v>43678</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>119</v>
+      </c>
+      <c r="G64">
+        <v>6915</v>
+      </c>
+      <c r="H64">
+        <v>1650</v>
+      </c>
+      <c r="I64">
+        <v>0.403361344537815</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64" s="2">
+        <v>43679</v>
+      </c>
+      <c r="N64" s="2">
+        <v>43685</v>
+      </c>
+      <c r="O64">
+        <v>7</v>
+      </c>
+      <c r="P64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>119</v>
+      </c>
+      <c r="G65">
+        <v>2648</v>
+      </c>
+      <c r="H65">
+        <v>2400</v>
+      </c>
+      <c r="I65">
+        <v>0.134453781512605</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>8</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65" s="2">
+        <v>43686</v>
+      </c>
+      <c r="N65" s="2">
+        <v>43692</v>
+      </c>
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>119</v>
+      </c>
+      <c r="G66">
+        <v>2889</v>
+      </c>
+      <c r="H66">
+        <v>1800</v>
+      </c>
+      <c r="I66">
+        <v>0.159663865546218</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66" s="2">
+        <v>43693</v>
+      </c>
+      <c r="N66" s="2">
+        <v>43699</v>
+      </c>
+      <c r="O66">
+        <v>7</v>
+      </c>
+      <c r="P66">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
         <v>45</v>
       </c>
-      <c r="D36">
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>60</v>
+      </c>
+      <c r="F67">
+        <v>180</v>
+      </c>
+      <c r="G67">
+        <v>9577</v>
+      </c>
+      <c r="H67">
+        <v>3900</v>
+      </c>
+      <c r="I67">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N67" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>45</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+      <c r="E68">
+        <v>127</v>
+      </c>
+      <c r="F68">
+        <v>315</v>
+      </c>
+      <c r="G68">
+        <v>13343</v>
+      </c>
+      <c r="H68">
+        <v>6450</v>
+      </c>
+      <c r="I68">
+        <v>0.403174603174603</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N68" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O68">
+        <v>7</v>
+      </c>
+      <c r="P68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>45</v>
+      </c>
+      <c r="D69">
+        <v>39</v>
+      </c>
+      <c r="E69">
+        <v>128</v>
+      </c>
+      <c r="F69">
+        <v>315</v>
+      </c>
+      <c r="G69">
+        <v>19908</v>
+      </c>
+      <c r="H69">
+        <v>9400</v>
+      </c>
+      <c r="I69">
+        <v>0.406349206349206</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N69" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="P69">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>45</v>
+      </c>
+      <c r="D70">
         <v>44</v>
       </c>
-      <c r="E36">
+      <c r="E70">
         <v>169</v>
       </c>
-      <c r="F36">
+      <c r="F70">
         <v>315</v>
       </c>
-      <c r="G36">
+      <c r="G70">
         <v>9355</v>
       </c>
-      <c r="H36">
+      <c r="H70">
         <v>12400</v>
       </c>
-      <c r="I36">
+      <c r="I70">
         <v>0.536507936507936</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>7</v>
-      </c>
-      <c r="L36">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
         <v>4</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M70" s="2">
         <v>43665</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N70" s="2">
         <v>43671</v>
       </c>
-      <c r="O36">
-        <v>7</v>
-      </c>
-      <c r="P36">
+      <c r="O70">
+        <v>7</v>
+      </c>
+      <c r="P70">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>45</v>
+      </c>
+      <c r="D71">
+        <v>32</v>
+      </c>
+      <c r="E71">
+        <v>126</v>
+      </c>
+      <c r="F71">
+        <v>270</v>
+      </c>
+      <c r="G71">
+        <v>19558</v>
+      </c>
+      <c r="H71">
+        <v>4100</v>
+      </c>
+      <c r="I71">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71" s="2">
+        <v>43672</v>
+      </c>
+      <c r="N71" s="2">
+        <v>43677</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>45</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>45</v>
+      </c>
+      <c r="G72">
+        <v>271</v>
+      </c>
+      <c r="H72">
+        <v>250</v>
+      </c>
+      <c r="I72">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>43678</v>
+      </c>
+      <c r="N72" s="2">
+        <v>43678</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>45</v>
+      </c>
+      <c r="D73">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>147</v>
+      </c>
+      <c r="F73">
+        <v>315</v>
+      </c>
+      <c r="G73">
+        <v>15052</v>
+      </c>
+      <c r="H73">
+        <v>6750</v>
+      </c>
+      <c r="I73">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>8</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73" s="2">
+        <v>43679</v>
+      </c>
+      <c r="N73" s="2">
+        <v>43685</v>
+      </c>
+      <c r="O73">
+        <v>7</v>
+      </c>
+      <c r="P73">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>54</v>
+      </c>
+      <c r="D74">
+        <v>46</v>
+      </c>
+      <c r="E74">
+        <v>181</v>
+      </c>
+      <c r="F74">
+        <v>378</v>
+      </c>
+      <c r="G74">
+        <v>18067.8</v>
+      </c>
+      <c r="H74">
+        <v>2350</v>
+      </c>
+      <c r="I74">
+        <v>0.478835978835979</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>8</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74" s="2">
+        <v>43686</v>
+      </c>
+      <c r="N74" s="2">
+        <v>43692</v>
+      </c>
+      <c r="O74">
+        <v>7</v>
+      </c>
+      <c r="P74">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>123</v>
+      </c>
+      <c r="F75">
+        <v>378</v>
+      </c>
+      <c r="G75">
+        <v>10779</v>
+      </c>
+      <c r="H75">
+        <v>3600</v>
+      </c>
+      <c r="I75">
+        <v>0.325396825396825</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75" s="2">
+        <v>43693</v>
+      </c>
+      <c r="N75" s="2">
+        <v>43699</v>
+      </c>
+      <c r="O75">
+        <v>7</v>
+      </c>
+      <c r="P75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>92</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>7</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>43647</v>
+      </c>
+      <c r="N76" s="2">
+        <v>43650</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>161</v>
+      </c>
+      <c r="G77">
+        <v>613</v>
+      </c>
+      <c r="H77">
+        <v>3459</v>
+      </c>
+      <c r="I77">
+        <v>0.0869565217391304</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>7</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77" s="2">
+        <v>43651</v>
+      </c>
+      <c r="N77" s="2">
+        <v>43657</v>
+      </c>
+      <c r="O77">
+        <v>7</v>
+      </c>
+      <c r="P77">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>161</v>
+      </c>
+      <c r="G78">
+        <v>178</v>
+      </c>
+      <c r="H78">
+        <v>500</v>
+      </c>
+      <c r="I78">
+        <v>0.0124223602484472</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>7</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78" s="2">
+        <v>43658</v>
+      </c>
+      <c r="N78" s="2">
+        <v>43664</v>
+      </c>
+      <c r="O78">
+        <v>7</v>
+      </c>
+      <c r="P78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>161</v>
+      </c>
+      <c r="G79">
+        <v>3788</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+      <c r="I79">
+        <v>0.09937888198757761</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79" s="2">
+        <v>43665</v>
+      </c>
+      <c r="N79" s="2">
+        <v>43671</v>
+      </c>
+      <c r="O79">
+        <v>7</v>
+      </c>
+      <c r="P79">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>23</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>138</v>
+      </c>
+      <c r="G80">
+        <v>37</v>
+      </c>
+      <c r="H80">
+        <v>1500</v>
+      </c>
+      <c r="I80">
+        <v>0.0507246376811594</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>7</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80" s="2">
+        <v>43672</v>
+      </c>
+      <c r="N80" s="2">
+        <v>43677</v>
+      </c>
+      <c r="O80">
+        <v>6</v>
+      </c>
+      <c r="P80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>23</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>23</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" s="2">
+        <v>43678</v>
+      </c>
+      <c r="N81" s="2">
+        <v>43678</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
+      </c>
+      <c r="F82">
+        <v>161</v>
+      </c>
+      <c r="G82">
+        <v>4058</v>
+      </c>
+      <c r="H82">
+        <v>7150</v>
+      </c>
+      <c r="I82">
+        <v>0.186335403726708</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>8</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82" s="2">
+        <v>43679</v>
+      </c>
+      <c r="N82" s="2">
+        <v>43685</v>
+      </c>
+      <c r="O82">
+        <v>7</v>
+      </c>
+      <c r="P82">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>41</v>
+      </c>
+      <c r="F83">
+        <v>161</v>
+      </c>
+      <c r="G83">
+        <v>3605</v>
+      </c>
+      <c r="H83">
+        <v>5950</v>
+      </c>
+      <c r="I83">
+        <v>0.254658385093168</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>8</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83" s="2">
+        <v>43686</v>
+      </c>
+      <c r="N83" s="2">
+        <v>43692</v>
+      </c>
+      <c r="O83">
+        <v>7</v>
+      </c>
+      <c r="P83">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>31</v>
+      </c>
+      <c r="F84">
+        <v>287</v>
+      </c>
+      <c r="G84">
+        <v>661</v>
+      </c>
+      <c r="H84">
+        <v>8350</v>
+      </c>
+      <c r="I84">
+        <v>0.10801393728223</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>8</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84" s="2">
+        <v>43693</v>
+      </c>
+      <c r="N84" s="2">
+        <v>43699</v>
+      </c>
+      <c r="O84">
+        <v>7</v>
+      </c>
+      <c r="P84">
         <v>31</v>
       </c>
     </row>
